--- a/Dataset/Folds/Fold_5/Excel/45.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="523">
   <si>
     <t>Doi</t>
   </si>
@@ -1759,6 +1759,84 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                            Christopher J%Armitage%NULL%2,                            Christopher J%Armitage%NULL%0,                            Tova%Tampe%NULL%1,                            Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                             Maria%Roura%NULL%1,                             Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                             Edna%Maradiaga%edjamar3006@yahoo.com%1,                             Javier%Roberti%jroberti@iecs.org.ar%1,                             Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                             Alison F.%Ortez%alison_fabiola@yahoo.es%1,                             Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                             Gloria%González%marilyntoin@yahoo.com%1,                             Carolina%Bustillo%mcbu1502@yahoo.com%0,                             Alejandra%Calderón%lilianalecalderon@gmail.com%1,                             Harry%Bock%hbockme@hotmail.com%1,                             María L.%Cafferata%NULL%1,                             Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                             Jackeline%Alger%jackelinealger@gmail.com%1,                             Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                             Carlos%Mejia Arbelaez%NULL%1,                             Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                             Miranda%Davies-Tuck%NULL%1,                             Hannah G.%Dahlen%NULL%1,                             Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                             Luoqun%Wei%NULL%1,                             Suling%Shi%NULL%1,                             Dandan%Jiao%NULL%1,                             Runluo%Song%NULL%1,                             Lili%Ma%NULL%1,                             Hongwei%Wang%NULL%1,                             Chao%Wang%NULL%1,                             Zhaoguo%Wang%NULL%1,                             Yanli%You%NULL%1,                             Shuhua%Liu%NULL%1,                             Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                             Santiago A.%Morales Mesa%NULL%1,                             John%Kinsman%NULL%1,                             Anna Mia%Ekström%NULL%1,                             Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                             Christopher J%Armitage%NULL%2,                             Christopher J%Armitage%NULL%0,                             Tova%Tampe%NULL%1,                             Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                              Maria%Roura%NULL%1,                              Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                              Edna%Maradiaga%edjamar3006@yahoo.com%1,                              Javier%Roberti%jroberti@iecs.org.ar%1,                              Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                              Alison F.%Ortez%alison_fabiola@yahoo.es%1,                              Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                              Gloria%González%marilyntoin@yahoo.com%1,                              Carolina%Bustillo%mcbu1502@yahoo.com%0,                              Alejandra%Calderón%lilianalecalderon@gmail.com%1,                              Harry%Bock%hbockme@hotmail.com%1,                              María L.%Cafferata%NULL%1,                              Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                              Jackeline%Alger%jackelinealger@gmail.com%1,                              Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                              Carlos%Mejia Arbelaez%NULL%1,                              Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                              Miranda%Davies-Tuck%NULL%1,                              Hannah G.%Dahlen%NULL%1,                              Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                              Luoqun%Wei%NULL%1,                              Suling%Shi%NULL%1,                              Dandan%Jiao%NULL%1,                              Runluo%Song%NULL%1,                              Lili%Ma%NULL%1,                              Hongwei%Wang%NULL%1,                              Chao%Wang%NULL%1,                              Zhaoguo%Wang%NULL%1,                              Yanli%You%NULL%1,                              Shuhua%Liu%NULL%1,                              Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                              Santiago A.%Morales Mesa%NULL%1,                              John%Kinsman%NULL%1,                              Anna Mia%Ekström%NULL%1,                              Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                              Christopher J%Armitage%NULL%2,                              Christopher J%Armitage%NULL%0,                              Tova%Tampe%NULL%1,                              Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%0, Maria%Roura%NULL%1, Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%0, Edna%Maradiaga%edjamar3006@yahoo.com%1, Javier%Roberti%jroberti@iecs.org.ar%1, Maricela%Casco-Aguilar%marykasco@yahoo.com%1, Alison F.%Ortez%alison_fabiola@yahoo.es%1, Juan C.%Avila-Flores%javilaflores3@gmail.com%1, Gloria%González%marilyntoin@yahoo.com%1, Carolina%Bustillo%mcbu1502@yahoo.com%0, Alejandra%Calderón%lilianalecalderon@gmail.com%1, Harry%Bock%hbockme@hotmail.com%1, María L.%Cafferata%NULL%1, Adriano B.%Tavares%adriano.b.tavares@gmail.com%1, Jackeline%Alger%jackelinealger@gmail.com%1, Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%0, Carlos%Mejia Arbelaez%NULL%1, Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%0, Miranda%Davies-Tuck%NULL%1, Hannah G.%Dahlen%NULL%1, Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd on behalf of Australian College of Midwives.</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%0, Luoqun%Wei%NULL%1, Suling%Shi%NULL%1, Dandan%Jiao%NULL%1, Runluo%Song%NULL%1, Lili%Ma%NULL%1, Hongwei%Wang%NULL%2, Chao%Wang%NULL%1, Zhaoguo%Wang%NULL%1, Yanli%You%NULL%1, Shuhua%Liu%NULL%1, Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Inc. on behalf of Association for Professionals in Infection Control and Epidemiology, Inc.</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%0, Santiago A.%Morales Mesa%NULL%1, John%Kinsman%NULL%1, Anna Mia%Ekström%NULL%1, Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%0, Christopher J%Armitage%NULL%2, Christopher J%Armitage%NULL%0, Tova%Tampe%NULL%1, Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
   </si>
 </sst>
 </file>
@@ -2092,28 +2170,28 @@
         <v>43891</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>393</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2127,10 +2205,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2142,10 +2220,10 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2159,10 +2237,10 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -2174,10 +2252,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,25 +2266,25 @@
         <v>41456</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
@@ -2220,25 +2298,25 @@
         <v>39083</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>486</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
@@ -2252,25 +2330,25 @@
         <v>40330</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
@@ -2284,25 +2362,25 @@
         <v>43070</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
         <v>80</v>
@@ -2316,25 +2394,25 @@
         <v>42491</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -2354,7 +2432,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -2366,10 +2444,10 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2380,25 +2458,25 @@
         <v>42979</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -2418,7 +2496,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -2430,10 +2508,10 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2444,28 +2522,28 @@
         <v>43230</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
         <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>405</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,25 +2554,25 @@
         <v>41214</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>493</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
@@ -2514,7 +2592,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2526,10 +2604,10 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2540,28 +2618,28 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
         <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2578,7 +2656,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2590,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2610,7 +2688,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -2622,10 +2700,10 @@
         <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
